--- a/tables/TableS16_pcounties_increasing_production.xlsx
+++ b/tables/TableS16_pcounties_increasing_production.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32B99F9D-CBC0-AA43-92C6-61804EC35197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF88FEF9-9438-8D4E-8305-B27736A51154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20080" yWindow="5520" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="21980" yWindow="5640" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS16_pcounties_increasing_p" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -921,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.46625766871165603</v>
+        <v>0.51515151515151503</v>
       </c>
       <c r="C3" s="1">
-        <v>0.45398773006135001</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="D3" s="1">
-        <v>0.42944785276073599</v>
+        <v>0.42592592592592599</v>
       </c>
       <c r="E3" s="1">
-        <v>0.36809815950920199</v>
+        <v>0.43558282208589</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,16 +978,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.49696969696969701</v>
+        <v>0.65517241379310298</v>
       </c>
       <c r="C4" s="1">
-        <v>0.48484848484848497</v>
+        <v>0.54878048780487798</v>
       </c>
       <c r="D4" s="1">
-        <v>0.44785276073619601</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="E4" s="1">
-        <v>0.39024390243902402</v>
+        <v>0.53846153846153799</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>0.51533742331288301</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35185185185185203</v>
+        <v>0.50617283950617298</v>
       </c>
       <c r="D5" s="1">
-        <v>0.34782608695652201</v>
+        <v>0.50920245398773001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33950617283950602</v>
+        <v>0.52380952380952395</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,16 +1012,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.62275449101796398</v>
+        <v>0.70588235294117696</v>
       </c>
       <c r="C6" s="1">
-        <v>0.59523809523809501</v>
+        <v>0.67647058823529405</v>
       </c>
       <c r="D6" s="1">
-        <v>0.58433734939758997</v>
+        <v>0.66470588235294104</v>
       </c>
       <c r="E6" s="1">
-        <v>0.56547619047619002</v>
+        <v>0.71264367816092</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1038,16 +1038,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.61349693251533699</v>
+        <v>0.656626506024096</v>
       </c>
       <c r="C8" s="1">
-        <v>0.60122699386503098</v>
+        <v>0.59509202453987697</v>
       </c>
       <c r="D8" s="1">
-        <v>0.59509202453987697</v>
+        <v>0.58895705521472397</v>
       </c>
       <c r="E8" s="1">
-        <v>0.53374233128834403</v>
+        <v>0.57055214723926395</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,16 +1055,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>0.71597633136094696</v>
+        <v>0.83146067415730296</v>
       </c>
       <c r="C9" s="1">
-        <v>0.70833333333333304</v>
+        <v>0.75739644970414199</v>
       </c>
       <c r="D9" s="1">
-        <v>0.68862275449101795</v>
+        <v>0.76023391812865504</v>
       </c>
       <c r="E9" s="1">
-        <v>0.64880952380952395</v>
+        <v>0.79310344827586199</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,16 +1072,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>0.75</v>
+        <v>0.75595238095238104</v>
       </c>
       <c r="C10" s="1">
-        <v>0.75595238095238104</v>
+        <v>0.74404761904761896</v>
       </c>
       <c r="D10" s="1">
-        <v>0.77245508982035904</v>
+        <v>0.75449101796407203</v>
       </c>
       <c r="E10" s="1">
-        <v>0.77325581395348797</v>
+        <v>0.74418604651162801</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,16 +1089,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>0.86826347305389195</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="C11" s="1">
-        <v>0.86309523809523803</v>
+        <v>0.88823529411764701</v>
       </c>
       <c r="D11" s="1">
-        <v>0.86227544910179599</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="E11" s="1">
-        <v>0.81656804733727795</v>
+        <v>0.874285714285714</v>
       </c>
     </row>
   </sheetData>
